--- a/퀵VBA-16-ChatGPTx파워포인트-자동화-실습파일/ChatGPT Prompt 생성 템플릿.xlsx
+++ b/퀵VBA-16-ChatGPTx파워포인트-자동화-실습파일/ChatGPT Prompt 생성 템플릿.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\퀵VBA-16-ChatGPTx파워포인트-자동화-실습파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Media\23-1\인공지능\AI-for-GPT\퀵VBA-16-ChatGPTx파워포인트-자동화-실습파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6480" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="6480" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="상장만들기" sheetId="1" r:id="rId4"/>
@@ -31,382 +31,199 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
   <x:si>
+    <x:t xml:space="preserve">Column 1: '목차', </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Please use english capital letters (A,B,C..) to represent each options, i.e, 'A. option', respectively.</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">'목차'은 목차의 전체적인 순서를 작성하고 글자 크기를 조절하여 한 눈에 볼 수 있도록 작성합니다. </x:t>
   </x:si>
   <x:si>
-    <x:t>Please generate in Table format with 2 columns.</x:t>
+    <x:t>Middle school students</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High school students</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이에 감사의 마음을 담아 상장을 드립니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cultre of North-korea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>머릿글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조건2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외국인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일본어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조건1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중학생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예술가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독일어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직장인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음악가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글자수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조건3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기업가</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>목차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유튜브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중국어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대학생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">하고 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Excel Tip&amp;Tricks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>American culture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japanese culture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Excel Shortcut keys</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Excel Basic Formula</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University students</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Excel Formula</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목차의 전체적인 순서를 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column 2: '1'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target People</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chinese culture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>entrepreneur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알파벳(A.B.C..)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean culture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Office workers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ChatGPT 역할 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quiz Subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>너는 지금부터 최신 트렌드를 가장 잘 아는 메타버스 개발자입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">너는 지금부터 최신 트렌드를 가장 잘 아는 메타버스 개발자입니다 최고의 수준으로 흥미를 이끌 수 있는 메타버스 관련 논문의 주제를 순서대로 작성해줘 모든 내용을 표 안에 작성해줘 Please generate in Table format with 2 columns. Column 1: '목차', Column 2: '1'and When create the Table, please following following instruction. '목차'은 목차의 전체적인 순서를 작성하고 글자 크기를 조절하여 한 눈에 볼 수 있도록 작성합니다. '1'은 </x:t>
   </x:si>
   <x:si>
     <x:t>귀하께서는 직원으로서</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">작성합니다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">'1'은 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">합니다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>최고의 수준으로 흥미를 이끌 수 있는 메타버스 관련 논문의 주제를 순서대로 작성해줘 모든 내용을 표 안에 작성해줘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조직원을 위해 자기자신을 헌신하는 회사 구성원 에게 수여할 재미있는 상장 이름 3개와 각 상장에 들어갈 100자 내외 상장 내용을 만들어주세요. 상장에 들어가는 내용은 '귀하께서는 직원으로서'로 시작하고, '이에 감사의 마음을 담아 상장을 드립니다'로 끝나도록 작성합니다. 수상자는 무작위 한국인 이름을 작성합니다. Please Generate in Table format with 3 columns. Column 1: '상장 이름', Column 2: '상장 내용', Column 3: '수상자'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>You are top tier motivation expert for 10-20's generations. Please generate 3 motivational quotes from famous people who have succeded as entrepreneur. Write english quotes in first and translate it to Korean. Please try your best to translate them as natural as possible.Generate in TABLE format with 3 columns.Column 1: '명언', Column 2: '이름', Column 3: '번역'</x:t>
+    <x:t>Covid-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생성할 상장 개수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문 주제 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>movie actor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상장 시작 문구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남북한 언어차이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 열 개수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑셀 기초 함수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만들 명언 개수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japanese</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Language</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Foreigner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문당 보기 개수</x:t>
   </x:si>
   <x:si>
     <x:t>differences between South korean and North korean words</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">작성하되, </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">너는 지금부터 최신 트렌드를 가장 잘 아는 메타버스 개발자입니다 최고의 수준으로 흥미를 이끌 수 있는 메타버스 관련 논문의 주제를 순서대로 작성해줘 모든 내용을 표 안에 작성해줘 Please generate in Table format with 2 columns. Column 1: '목차', Column 2: '1'and When create the Table, please following following instruction. '목차'은 목차의 전체적인 순서를 작성하고 글자 크기를 조절하여 한 눈에 볼 수 있도록 작성합니다. '1'은 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>University students</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japanese culture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Excel Basic Formula</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Excel Shortcut keys</x:t>
-  </x:si>
-  <x:si>
-    <x:t>American culture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Excel Tip&amp;Tricks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Please use english capital letters (A,B,C..) to represent each options, i.e, 'A. option', respectively.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문 주제 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 열 개수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>movie actor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑셀 기초 함수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Covid-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남북한 언어차이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만들 명언 개수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생성할 상장 개수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상장 시작 문구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Language</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문당 보기 개수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japanese</x:t>
-  </x:si>
-  <x:si>
-    <x:t>머릿글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조건1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독일어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예술가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글자수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조건2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음악가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조건3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외국인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일본어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직장인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중학생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기업가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유튜브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중국어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대학생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모두</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Foreigner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I would like to generate multiple-choice quenstions essential for Elementary school students. As much as possible, try to create questions on topics that Elementary school students are interested in. Create 5 mutlple-choice questions with 4 options related to differences between South korean and North korean words. Please use english capital letters (A,B,C..) to represent each options, i.e, 'A. option', respectively. And try to write each questions, options and explanations in Korean and options should not exceed 40 words and quesionts should not exceed 80 words, respectively. Generate a TABLE with 7 columns. Column 1: '질문' Columns 2 to 5: '옵션 1~4' Column 6: '정답' Column 7: '설명' Please indicate the correct answer for each question in '정답' column, i.e, 'A. answer' and provide a brief explanation in '설명' column. Please generate TABLE only.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean culture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chinese culture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target People</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알파벳(A.B.C..)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Office workers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>entrepreneur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ChatGPT 역할 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Excel Formula</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quiz Subject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목차의 전체적인 순서를 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>youtube</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>r</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>German</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Franch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑셀 함수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Russian</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑셀 팁&amp;기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문 대상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문 개수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표시언어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>러시아어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chinese</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프랑스어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문주제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엑셀 단축키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표시 언어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보기 머릿글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문 주제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>English</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문대상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중국 문화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영화배우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성공분야</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주식투자자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초등학생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수상 대상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코로나19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>북한 문화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>writer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고등학생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>athlete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>artist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일본 문화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대상 성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연사자 분야</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미국 문화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상장 맺음말</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대상 독자층</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국 문화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조직원을 위해 자기자신을 헌신하는 회사 구성원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elementary school students</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글자 크기를 조절하여 한 눈에 볼 수 있도록 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>High school students</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이에 감사의 마음을 담아 상장을 드립니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Middle school students</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cultre of North-korea</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목차</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>music</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ian</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">stock </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>trader</x:t>
-    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -540,16 +357,199 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Column 1: '목차', </x:t>
-  </x:si>
-  <x:si>
-    <x:t>너는 지금부터 최신 트렌드를 가장 잘 아는 메타버스 개발자입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column 2: '1'</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">하고 </x:t>
+    <x:t>You are top tier motivation expert for 10-20's generations. Please generate 3 motivational quotes from famous people who have succeded as entrepreneur. Write english quotes in first and translate it to Korean. Please try your best to translate them as natural as possible.Generate in TABLE format with 3 columns.Column 1: '명언', Column 2: '이름', Column 3: '번역'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I would like to generate multiple-choice quenstions essential for University students. As much as possible, try to create questions on topics that University students are interested in. Create 5 mutlple-choice questions with 4 options related to differences between South korean and North korean words. Please use english capital letters (A,B,C..) to represent each options, i.e, 'A. option', respectively. And try to write each questions, options and explanations in Korean and options should not exceed 40 words and quesionts should not exceed 80 words, respectively. Generate a TABLE with 7 columns. Column 1: '질문' Columns 2 to 5: '옵션 1~4' Column 6: '정답' Column 7: '설명' Please indicate the correct answer for each question in '정답' column, i.e, 'A. answer' and provide a brief explanation in '설명' column. Please generate TABLE only.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최고의 수준으로 흥미를 이끌 수 있는 메타버스 관련 논문의 주제를 순서대로 작성해줘 모든 내용을 표 안에 작성해줘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일본 문화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대상 성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연사자 분야</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주식투자자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑셀 단축키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표시 언어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코로나19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표시언어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성공분야</x:t>
+  </x:si>
+  <x:si>
+    <x:t>English</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보기 머릿글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문 주제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수상 대상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북한 문화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑셀 팁&amp;기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중국 문화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문 개수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영화배우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초등학생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문 대상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>writer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>러시아어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chinese</x:t>
+  </x:si>
+  <x:si>
+    <x:t>athlete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프랑스어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문주제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>artist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고등학생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질문대상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대상 독자층</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상장 맺음말</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국 문화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미국 문화</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">작성합니다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">'1'은 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">합니다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Russian</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엑셀 함수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>German</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">작성하되, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Franch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Please generate in Table format with 2 columns.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조직원을 위해 자기자신을 헌신하는 회사 구성원 에게 수여할 재미있는 상장 이름 3개와 각 상장에 들어갈 100자 내외 상장 내용을 만들어주세요. 상장에 들어가는 내용은 '귀하께서는 직원으로서'로 시작하고, '이에 감사의 마음을 담아 상장을 드립니다'로 끝나도록 작성합니다. 수상자는 무작위 한국인 이름을 작성합니다. Please Generate in Table format with 3 columns. Column 1: '상장 이름', Column 2: '상장 내용', Column 3: '수상자'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조직원을 위해 자기자신을 헌신하는 회사 구성원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글자 크기를 조절하여 한 눈에 볼 수 있도록 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elementary school students</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">stock </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>trader</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>music</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>ian</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>youtube</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>r</x:t>
+    </x:r>
   </x:si>
 </x:sst>
 </file>
@@ -595,53 +595,22 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff7f7f7f"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff7f7f7f"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="9"/>
+      <x:color rgb="ff7f7f7f"/>
+    </x:font>
     <x:font>
       <x:name val="Microsoft JhengHei"/>
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff0d0d0d"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff0d0d0d"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff0d0d0d"/>
+      <x:b val="1"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -704,12 +673,6 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="10"/>
-      <x:color rgb="ffffffff"/>
-      <x:b val="1"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -727,6 +690,28 @@
           <x:name val="맑은 고딕"/>
           <x:sz val="10"/>
           <x:color rgb="ff595959"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -998,7 +983,7 @@
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="46">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1313,7 +1298,88 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1322,9 +1388,6 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" hs:applyExtension="1">
@@ -1335,84 +1398,6 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="left" vertical="center" indent="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1800,38 +1785,106 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:sz val="10"/>
             <x:color rgb="ff000000"/>
-            <x:b val="0"/>
-            <x:i val="0"/>
-            <x:strike val="0"/>
-            <x:u val="none"/>
-            <hs:underlineType val="0"/>
-            <hs:underlineShape val="solid"/>
-            <hs:underlineColor rgb="ff000000"/>
-            <hs:strikeoutType val="0"/>
-            <hs:strikeoutShape val="solid"/>
-            <hs:strikeoutColor rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
             <hs:offset val="0"/>
           </x:font>
-          <x:alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
         </x:dxf>
       </mc:Choice>
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:sz val="10"/>
             <x:color rgb="ff000000"/>
-            <x:b val="0"/>
-            <x:i val="0"/>
-            <x:strike val="0"/>
-            <x:u val="none"/>
           </x:font>
-          <x:alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
         </x:dxf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1851,7 +1904,6 @@
             <hs:strikeoutType val="0"/>
             <hs:strikeoutShape val="solid"/>
             <hs:strikeoutColor rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1874,6 +1926,9 @@
         </x:dxf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:dxf>
+      <x:alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+    </x:dxf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
@@ -1890,13 +1945,12 @@
             <hs:strikeoutType val="0"/>
             <hs:strikeoutShape val="solid"/>
             <hs:strikeoutColor rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
             <hs:offset val="0"/>
           </x:font>
-          <x:alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+          <x:alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
         </x:dxf>
       </mc:Choice>
       <mc:Fallback>
@@ -1909,7 +1963,7 @@
             <x:strike val="0"/>
             <x:u val="none"/>
           </x:font>
-          <x:alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
+          <x:alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
         </x:dxf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1929,88 +1983,6 @@
             <hs:strikeoutType val="0"/>
             <hs:strikeoutShape val="solid"/>
             <hs:strikeoutColor rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:sz val="10"/>
-            <x:color rgb="ff000000"/>
-            <x:b val="0"/>
-            <x:i val="0"/>
-            <x:strike val="0"/>
-            <x:u val="none"/>
-          </x:font>
-          <x:alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:dxf>
-      <x:alignment vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-    </x:dxf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:sz val="10"/>
-            <x:color rgb="ff000000"/>
-            <x:b val="0"/>
-            <x:i val="0"/>
-            <x:strike val="0"/>
-            <x:u val="none"/>
-            <hs:underlineType val="0"/>
-            <hs:underlineShape val="solid"/>
-            <hs:underlineColor rgb="ff000000"/>
-            <hs:strikeoutType val="0"/>
-            <hs:strikeoutShape val="solid"/>
-            <hs:strikeoutColor rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
-            <hs:size val="0"/>
-            <hs:ratio val="0"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:font>
-          <x:alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-        </x:dxf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:dxf>
-          <x:font>
-            <x:sz val="10"/>
-            <x:color rgb="ff000000"/>
-            <x:b val="0"/>
-            <x:i val="0"/>
-            <x:strike val="0"/>
-            <x:u val="none"/>
-          </x:font>
-          <x:alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1" shrinkToFit="1"/>
-        </x:dxf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:dxf hs:applyExtension="1">
-          <x:font hs:extension="1">
-            <x:sz val="10"/>
-            <x:color rgb="ff000000"/>
-            <x:b val="0"/>
-            <x:i val="0"/>
-            <x:strike val="0"/>
-            <x:u val="none"/>
-            <hs:underlineType val="0"/>
-            <hs:underlineShape val="solid"/>
-            <hs:underlineColor rgb="ff000000"/>
-            <hs:strikeoutType val="0"/>
-            <hs:strikeoutShape val="solid"/>
-            <hs:strikeoutColor rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2071,7 +2043,6 @@
             <hs:strikeoutType val="1"/>
             <hs:strikeoutShape val="solid"/>
             <hs:strikeoutColor rgb="ffff0000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2106,7 +2077,6 @@
             <hs:strikeoutType val="1"/>
             <hs:strikeoutShape val="solid"/>
             <hs:strikeoutColor rgb="ffff5050"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2172,7 +2142,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2253,7 +2223,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -2412,7 +2382,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2493,86 +2463,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1623060</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>723900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2583180</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:hlinkClick invalidUrl="https://www.oppadu.com/chatgpt-ppt-연동" tooltip="https://www.oppadu.com/chatgpt-ppt-연동"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7019925" y="904875"/>
-          <a:ext cx="1200150" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1645920</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>259080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="180975"/>
-          <a:ext cx="6553200" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2594,7 +2486,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2632,7 +2524,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2653,7 +2545,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="질문주제" displayName="질문주제" ref="D1:E12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="18">
+<x:table xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="질문주제" displayName="질문주제" ref="D1:E12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="18">
   <x:autoFilter ref="D1:E12"/>
   <x:tableColumns count="2">
     <x:tableColumn id="1" name="질문주제" dataDxfId="13"/>
@@ -2686,7 +2578,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="성공분야" displayName="성공분야" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="14">
+<x:table xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="성공분야" displayName="성공분야" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="15">
   <x:autoFilter ref="A1:B9"/>
   <x:tableColumns count="2">
     <x:tableColumn id="1" name="성공분야" dataDxfId="1"/>
@@ -3016,18 +2908,18 @@
     <x:row r="3" ht="28.899999999999999" customHeight="1"/>
     <x:row r="4" spans="2:3" ht="22.899999999999999" customHeight="1">
       <x:c r="B4" s="14" t="s">
-        <x:v>89</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C4" s="6" t="s">
-        <x:v>105</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:3" ht="22.899999999999999" customHeight="1">
       <x:c r="B5" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C5" s="6" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:3" ht="22.899999999999999" customHeight="1">
@@ -3035,12 +2927,12 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="C6" s="6" t="s">
-        <x:v>109</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:3" ht="22.899999999999999" customHeight="1">
       <x:c r="B7" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C7" s="6">
         <x:v>3</x:v>
@@ -3143,7 +3035,7 @@
       <x:formula1>"1,2,3,4,5,6,7,8,9,10"</x:formula1>
     </x:dataValidation>
   </x:dataValidations>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -3180,19 +3072,19 @@
     <x:row r="3" ht="28.899999999999999" customHeight="1"/>
     <x:row r="4" spans="2:4" ht="22.899999999999999" customHeight="1">
       <x:c r="B4" s="14" t="s">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C4" s="17" t="s">
-        <x:v>93</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D4" s="7"/>
     </x:row>
     <x:row r="5" spans="2:4" ht="22.899999999999999" customHeight="1">
       <x:c r="B5" s="14" t="s">
-        <x:v>99</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>51</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="32" t="str">
         <x:f>IF(C5="모두","",IF(C5="남성",", especially for mens",", especially for womens"))</x:f>
@@ -3201,10 +3093,10 @@
     </x:row>
     <x:row r="6" spans="2:4" ht="22.899999999999999" customHeight="1">
       <x:c r="B6" s="14" t="s">
-        <x:v>100</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>47</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="32" t="str">
         <x:f>VLOOKUP(명언만들기!C6,성공분야[],2,0)</x:f>
@@ -3213,7 +3105,7 @@
     </x:row>
     <x:row r="7" spans="2:4" ht="22.899999999999999" customHeight="1">
       <x:c r="B7" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C7" s="18">
         <x:v>3</x:v>
@@ -3224,17 +3116,17 @@
       <x:c r="B8" s="3"/>
     </x:row>
     <x:row r="9" spans="2:4" ht="26.449999999999999" customHeight="1">
-      <x:c r="B9" s="35"/>
-      <x:c r="C9" s="35"/>
-      <x:c r="D9" s="35"/>
+      <x:c r="B9" s="42"/>
+      <x:c r="C9" s="42"/>
+      <x:c r="D9" s="42"/>
     </x:row>
     <x:row r="10" spans="2:6" ht="97.900000000000006" customHeight="1">
-      <x:c r="B10" s="36" t="str">
+      <x:c r="B10" s="43" t="str">
         <x:f>SUBSTITUTE("You are top tier motivation expert for "&amp;C4&amp;"'s generations"&amp;D5&amp;"."&amp;CHAR(10)&amp;"Please generate "&amp;C7&amp;" motivational quotes from famous people who have succeded as "&amp;D6&amp;"."&amp;CHAR(10)&amp;"Write english quotes in first and translate it to Korean."&amp;CHAR(10)&amp;"Please try your best to translate them as natural as possible."&amp;"Generate in TABLE format with 3 columns."&amp;"Column 1: '명언', Column 2: '이름', Column 3: '번역'",CHAR(10)," ")</x:f>
         <x:v>You are top tier motivation expert for 10-20's generations. Please generate 3 motivational quotes from famous people who have succeded as entrepreneur. Write english quotes in first and translate it to Korean. Please try your best to translate them as natural as possible.Generate in TABLE format with 3 columns.Column 1: '명언', Column 2: '이름', Column 3: '번역'</x:v>
       </x:c>
-      <x:c r="C10" s="37"/>
-      <x:c r="D10" s="37"/>
+      <x:c r="C10" s="44"/>
+      <x:c r="D10" s="44"/>
       <x:c r="E10" s="5"/>
       <x:c r="F10" s="4"/>
     </x:row>
@@ -3347,7 +3239,7 @@
       <x:formula1>INDIRECT("성공분야[성공분야]")</x:formula1>
     </x:dataValidation>
   </x:dataValidations>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -3360,7 +3252,7 @@
   </x:sheetPr>
   <x:dimension ref="B4:N32"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="G10" activeCellId="0" sqref="G10:G10"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3387,14 +3279,14 @@
     <x:row r="4" spans="2:10" ht="25.899999999999999" customHeight="1">
       <x:c r="B4" s="24"/>
       <x:c r="C4" s="21" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D4" s="40" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E4" s="41"/>
-      <x:c r="F4" s="41"/>
-      <x:c r="G4" s="42"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D4" s="36" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E4" s="37"/>
+      <x:c r="F4" s="37"/>
+      <x:c r="G4" s="38"/>
       <x:c r="H4" s="20"/>
       <x:c r="I4" s="30"/>
       <x:c r="J4" s="30"/>
@@ -3402,14 +3294,14 @@
     <x:row r="5" spans="2:10" ht="25.899999999999999" customHeight="1">
       <x:c r="B5" s="24"/>
       <x:c r="C5" s="21" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D5" s="40" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E5" s="41"/>
-      <x:c r="F5" s="41"/>
-      <x:c r="G5" s="42"/>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D5" s="36" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E5" s="37"/>
+      <x:c r="F5" s="37"/>
+      <x:c r="G5" s="38"/>
       <x:c r="H5" s="20"/>
       <x:c r="I5" s="30"/>
       <x:c r="J5" s="30"/>
@@ -3417,16 +3309,16 @@
     <x:row r="6" spans="2:9" ht="25.899999999999999" customHeight="1">
       <x:c r="B6" s="24"/>
       <x:c r="C6" s="25" t="s">
-        <x:v>20</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D6" s="23">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E6" s="43" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F6" s="44"/>
-      <x:c r="G6" s="45"/>
+      <x:c r="E6" s="39" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F6" s="40"/>
+      <x:c r="G6" s="41"/>
       <x:c r="I6" s="29" t="str">
         <x:f>"Please generate in Table format with "&amp;D6&amp;" columns."</x:f>
         <x:v>Please generate in Table format with 2 columns.</x:v>
@@ -3435,34 +3327,34 @@
     <x:row r="7" spans="2:7" ht="25.899999999999999" customHeight="1">
       <x:c r="B7" s="24"/>
       <x:c r="C7" s="22" t="s">
-        <x:v>31</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D7" s="22" t="s">
-        <x:v>36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E7" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="22" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G7" s="22" t="s">
-        <x:v>41</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:14" ht="25.899999999999999" customHeight="1">
       <x:c r="B8" s="24"/>
       <x:c r="C8" s="26" t="s">
-        <x:v>112</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D8" s="26">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E8" s="28" t="s">
-        <x:v>63</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F8" s="28" t="s">
-        <x:v>107</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G8" s="27"/>
       <x:c r="I8" s="31" t="str">
@@ -3702,16 +3594,16 @@
       </x:c>
     </x:row>
     <x:row r="16" spans="3:12" ht="26.449999999999999" customHeight="1">
-      <x:c r="C16" s="38"/>
-      <x:c r="D16" s="38"/>
-      <x:c r="E16" s="38"/>
-      <x:c r="F16" s="38"/>
-      <x:c r="G16" s="38"/>
-      <x:c r="H16" s="38"/>
-      <x:c r="I16" s="38"/>
-      <x:c r="J16" s="38"/>
-      <x:c r="K16" s="38"/>
-      <x:c r="L16" s="38"/>
+      <x:c r="C16" s="35"/>
+      <x:c r="D16" s="35"/>
+      <x:c r="E16" s="35"/>
+      <x:c r="F16" s="35"/>
+      <x:c r="G16" s="35"/>
+      <x:c r="H16" s="35"/>
+      <x:c r="I16" s="35"/>
+      <x:c r="J16" s="35"/>
+      <x:c r="K16" s="35"/>
+      <x:c r="L16" s="35"/>
     </x:row>
     <x:row r="17" spans="3:13" ht="127.90000000000001" customHeight="1">
       <x:c r="C17" s="33" t="str">
@@ -3978,7 +3870,7 @@
       <x:formula2>7</x:formula2>
     </x:dataValidation>
   </x:dataValidations>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -3991,8 +3883,8 @@
   </x:sheetPr>
   <x:dimension ref="B4:H27"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C4" activeCellId="0" sqref="C4:C4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" customHeight="1"/>
@@ -4016,102 +3908,102 @@
     <x:row r="3" ht="28.899999999999999" customHeight="1"/>
     <x:row r="4" spans="2:6" ht="22.899999999999999" customHeight="1">
       <x:c r="B4" s="14" t="s">
-        <x:v>71</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C4" s="19" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D4" s="39" t="str">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D4" s="45" t="str">
         <x:f>VLOOKUP(C4,질문대상[],2,0)</x:f>
-        <x:v>Elementary school students</x:v>
-      </x:c>
-      <x:c r="E4" s="39"/>
-      <x:c r="F4" s="39"/>
+        <x:v>University students</x:v>
+      </x:c>
+      <x:c r="E4" s="45"/>
+      <x:c r="F4" s="45"/>
     </x:row>
     <x:row r="5" spans="2:6" ht="22.899999999999999" customHeight="1">
       <x:c r="B5" s="14" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C5" s="19" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D5" s="39" t="str">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D5" s="45" t="str">
         <x:f>VLOOKUP(C5,질문주제[],2,0)</x:f>
         <x:v>differences between South korean and North korean words</x:v>
       </x:c>
-      <x:c r="E5" s="39"/>
-      <x:c r="F5" s="39"/>
+      <x:c r="E5" s="45"/>
+      <x:c r="F5" s="45"/>
     </x:row>
     <x:row r="6" spans="2:6" ht="22.899999999999999" customHeight="1">
       <x:c r="B6" s="14" t="s">
-        <x:v>72</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C6" s="19">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D6" s="39"/>
-      <x:c r="E6" s="39"/>
-      <x:c r="F6" s="39"/>
+      <x:c r="D6" s="45"/>
+      <x:c r="E6" s="45"/>
+      <x:c r="F6" s="45"/>
     </x:row>
     <x:row r="7" spans="2:6" ht="22.899999999999999" customHeight="1">
       <x:c r="B7" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C7" s="19">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D7" s="39"/>
-      <x:c r="E7" s="39"/>
-      <x:c r="F7" s="39"/>
+      <x:c r="D7" s="45"/>
+      <x:c r="E7" s="45"/>
+      <x:c r="F7" s="45"/>
     </x:row>
     <x:row r="8" spans="2:6" ht="22.899999999999999" customHeight="1">
       <x:c r="B8" s="14" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C8" s="19" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D8" s="39" t="str">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D8" s="45" t="str">
         <x:f>VLOOKUP(C8,표시언어[],2,0)</x:f>
         <x:v>Korean</x:v>
       </x:c>
-      <x:c r="E8" s="39"/>
-      <x:c r="F8" s="39"/>
+      <x:c r="E8" s="45"/>
+      <x:c r="F8" s="45"/>
     </x:row>
     <x:row r="9" spans="2:6" ht="22.899999999999999" customHeight="1">
       <x:c r="B9" s="14" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D9" s="39" t="str">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D9" s="45" t="str">
         <x:f>IF(ISNUMBER(SEARCH("알파벳",C9)),"Please use english capital letters (A,B,C..) to represent each options, i.e, 'A. option', respectively.","Please use numbers (1,2,3..) to represent each options, i.e, '1. option', respectively.")</x:f>
         <x:v>Please use english capital letters (A,B,C..) to represent each options, i.e, 'A. option', respectively.</x:v>
       </x:c>
-      <x:c r="E9" s="39"/>
-      <x:c r="F9" s="39"/>
+      <x:c r="E9" s="45"/>
+      <x:c r="F9" s="45"/>
     </x:row>
     <x:row r="10" spans="2:3" customHeight="1">
       <x:c r="B10" s="15"/>
       <x:c r="C10" s="16"/>
     </x:row>
     <x:row r="11" spans="2:6" ht="26.449999999999999" customHeight="1">
-      <x:c r="B11" s="38"/>
-      <x:c r="C11" s="38"/>
-      <x:c r="D11" s="38"/>
-      <x:c r="E11" s="38"/>
-      <x:c r="F11" s="38"/>
+      <x:c r="B11" s="35"/>
+      <x:c r="C11" s="35"/>
+      <x:c r="D11" s="35"/>
+      <x:c r="E11" s="35"/>
+      <x:c r="F11" s="35"/>
     </x:row>
     <x:row r="12" spans="2:8" ht="144.59999999999999" customHeight="1">
-      <x:c r="B12" s="36" t="str">
+      <x:c r="B12" s="43" t="str">
         <x:f>SUBSTITUTE("I would like to generate multiple-choice quenstions essential for "&amp;D4&amp;"."&amp;CHAR(10)&amp;"As much as possible, try to create questions on topics that "&amp;D4&amp;" are interested in."&amp;CHAR(10)&amp;"Create "&amp;C6&amp;" mutlple-choice questions with "&amp;C7&amp;" options related to "&amp;D5&amp;"."&amp;CHAR(10)&amp;D9&amp;CHAR(10)&amp;"And try to write each questions, options and explanations in "&amp;D8&amp;" and options should not exceed 40 words and quesionts should not exceed 80 words, respectively."&amp;CHAR(10)&amp;"Generate a TABLE with "&amp;C7+3&amp;" columns."&amp;CHAR(10)&amp;"Column 1: '질문'"&amp;CHAR(10)&amp;"Columns 2 to "&amp;C7+1&amp;": '옵션 1~"&amp;C7&amp;"'"&amp;CHAR(10)&amp;"Column "&amp;C7+2&amp;": '정답'"&amp;CHAR(10)&amp;"Column "&amp;C7+3&amp;": '설명'"&amp;CHAR(10)&amp;"Please indicate the correct answer for each question in '정답' column, i.e, 'A. answer' and provide a brief explanation in '설명' column. Please generate TABLE only.",CHAR(10)," ")</x:f>
-        <x:v>I would like to generate multiple-choice quenstions essential for Elementary school students. As much as possible, try to create questions on topics that Elementary school students are interested in. Create 5 mutlple-choice questions with 4 options related to differences between South korean and North korean words. Please use english capital letters (A,B,C..) to represent each options, i.e, 'A. option', respectively. And try to write each questions, options and explanations in Korean and options should not exceed 40 words and quesionts should not exceed 80 words, respectively. Generate a TABLE with 7 columns. Column 1: '질문' Columns 2 to 5: '옵션 1~4' Column 6: '정답' Column 7: '설명' Please indicate the correct answer for each question in '정답' column, i.e, 'A. answer' and provide a brief explanation in '설명' column. Please generate TABLE only.</x:v>
-      </x:c>
-      <x:c r="C12" s="37"/>
-      <x:c r="D12" s="37"/>
-      <x:c r="E12" s="37"/>
-      <x:c r="F12" s="37"/>
+        <x:v>I would like to generate multiple-choice quenstions essential for University students. As much as possible, try to create questions on topics that University students are interested in. Create 5 mutlple-choice questions with 4 options related to differences between South korean and North korean words. Please use english capital letters (A,B,C..) to represent each options, i.e, 'A. option', respectively. And try to write each questions, options and explanations in Korean and options should not exceed 40 words and quesionts should not exceed 80 words, respectively. Generate a TABLE with 7 columns. Column 1: '질문' Columns 2 to 5: '옵션 1~4' Column 6: '정답' Column 7: '설명' Please indicate the correct answer for each question in '정답' column, i.e, 'A. answer' and provide a brief explanation in '설명' column. Please generate TABLE only.</x:v>
+      </x:c>
+      <x:c r="C12" s="44"/>
+      <x:c r="D12" s="44"/>
+      <x:c r="E12" s="44"/>
+      <x:c r="F12" s="44"/>
       <x:c r="G12" s="5"/>
       <x:c r="H12" s="4"/>
     </x:row>
@@ -4263,7 +4155,7 @@
       <x:formula1>"알파벳(A.B.C..),숫자(1.2.3..)"</x:formula1>
     </x:dataValidation>
   </x:dataValidations>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -4297,250 +4189,250 @@
   <x:sheetData>
     <x:row r="1" spans="1:11">
       <x:c r="A1" s="8" t="s">
-        <x:v>86</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B1" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D1" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E1" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G1" s="8" t="s">
-        <x:v>83</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H1" s="8" t="s">
-        <x:v>56</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J1" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K1" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D2" s="8" t="s">
-        <x:v>67</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E2" s="8" t="s">
-        <x:v>61</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G2" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="9" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="H2" s="9" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="J2" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="K2" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D3" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G3" s="9" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H3" s="9" t="s">
-        <x:v>106</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="J3" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K3" s="10" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B4" s="12" t="s">
-        <x:v>113</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D4" s="8" t="s">
-        <x:v>70</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G4" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H4" s="9" t="s">
-        <x:v>110</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J4" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="K4" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>64</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D5" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E5" s="8" t="s">
-        <x:v>15</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G5" s="9" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H5" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J5" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K5" s="10" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="H5" s="9" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="J5" s="10" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="K5" s="10" t="s">
-        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="8" t="s">
-        <x:v>87</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D6" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E6" s="12" t="s">
-        <x:v>23</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G6" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H6" s="9" t="s">
-        <x:v>12</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="J6" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K6" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B7" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D7" s="8" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G7" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H7" s="9" t="s">
-        <x:v>52</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J7" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K7" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="D8" s="8" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E8" s="8" t="s">
-        <x:v>16</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J8" s="10" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K8" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="D9" s="8" t="s">
-        <x:v>97</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E9" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="8"/>
       <x:c r="B10" s="8"/>
       <x:c r="D10" s="8" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E10" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="8"/>
       <x:c r="B11" s="8"/>
       <x:c r="D11" s="8" t="s">
-        <x:v>91</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E11" s="8" t="s">
-        <x:v>111</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="4:5">
       <x:c r="D12" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E12" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:tableParts count="4">
     <x:tablePart r:id="rId1"/>
